--- a/data_year/zb/资源和环境/主要矿产查明资源储量.xlsx
+++ b/data_year/zb/资源和环境/主要矿产查明资源储量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW8"/>
+  <dimension ref="A1:AW7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,1045 +678,902 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30009</v>
+        <v>37793.2</v>
       </c>
       <c r="C2" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="D2" t="n">
-        <v>789.5</v>
+        <v>1021</v>
       </c>
       <c r="E2" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>2.67</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1318.4</v>
+      </c>
       <c r="G2" t="n">
-        <v>11597.8</v>
+        <v>13411.9</v>
       </c>
       <c r="H2" t="n">
-        <v>53.4</v>
+        <v>64.7</v>
       </c>
       <c r="I2" t="n">
-        <v>9552.4</v>
+        <v>8975.299999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>27.6</v>
+        <v>31.7</v>
       </c>
       <c r="K2" t="n">
-        <v>682.5</v>
+        <v>769.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="M2" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="N2" t="n">
-        <v>54.1</v>
+        <v>56.9</v>
       </c>
       <c r="O2" t="n">
-        <v>7275.7</v>
+        <v>7309.2</v>
       </c>
       <c r="P2" t="n">
-        <v>169.82</v>
+        <v>186.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.4</v>
+        <v>24.6</v>
       </c>
       <c r="R2" t="n">
-        <v>29.4</v>
+        <v>28</v>
       </c>
       <c r="S2" t="n">
-        <v>207.7</v>
+        <v>934.2</v>
       </c>
       <c r="T2" t="n">
-        <v>35.9</v>
+        <v>36.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>3.83</v>
+        <v>3.77556</v>
       </c>
       <c r="W2" t="n">
-        <v>3644.8</v>
+        <v>3702.1</v>
       </c>
       <c r="X2" t="n">
-        <v>4996.9</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>6864.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4381.9</v>
+      </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>13126.1</v>
+        <v>13337.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>558.4</v>
+        <v>591</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.09999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>1094.2</v>
+        <v>1401.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.81</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AF2" t="n">
-        <v>607.3</v>
+        <v>727</v>
       </c>
       <c r="AG2" t="n">
-        <v>339.6</v>
+        <v>334.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>4141.4</v>
+        <v>5509.1</v>
       </c>
       <c r="AI2" t="n">
-        <v>7047.8</v>
+        <v>8040.7</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27.8</v>
+        <v>37.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1007.8</v>
+        <v>1114.39</v>
       </c>
       <c r="AL2" t="n">
-        <v>14.4</v>
+        <v>17.2</v>
       </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="n">
-        <v>9710.9</v>
+        <v>11596.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>225.1</v>
+        <v>255</v>
       </c>
       <c r="AP2" t="n">
-        <v>476.9</v>
+        <v>431.9</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7.67</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="AR2" t="n">
-        <v>4652.3</v>
+        <v>4375.4</v>
       </c>
       <c r="AS2" t="n">
-        <v>801.4</v>
+        <v>938</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="n">
-        <v>14.1</v>
+        <v>13.74368</v>
       </c>
       <c r="AV2" t="n">
-        <v>21.5</v>
+        <v>21.80047</v>
       </c>
       <c r="AW2" t="n">
-        <v>18.3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37793.2</v>
+        <v>51939.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="D3" t="n">
-        <v>1021</v>
+        <v>1282.3</v>
       </c>
       <c r="E3" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="F3" t="n">
-        <v>1318.4</v>
+        <v>3062.5</v>
       </c>
       <c r="G3" t="n">
-        <v>13411.9</v>
+        <v>15663.1</v>
       </c>
       <c r="H3" t="n">
-        <v>64.7</v>
+        <v>79</v>
       </c>
       <c r="I3" t="n">
-        <v>8975.299999999999</v>
+        <v>9157.4</v>
       </c>
       <c r="J3" t="n">
-        <v>31.7</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>769.1</v>
+        <v>1004.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="M3" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="N3" t="n">
-        <v>56.9</v>
+        <v>58.8</v>
       </c>
       <c r="O3" t="n">
-        <v>7309.2</v>
+        <v>7575.7</v>
       </c>
       <c r="P3" t="n">
-        <v>186.3</v>
+        <v>231.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>24.6</v>
+        <v>25.6</v>
       </c>
       <c r="R3" t="n">
-        <v>28</v>
+        <v>28.9</v>
       </c>
       <c r="S3" t="n">
-        <v>934.2</v>
+        <v>1170.7</v>
       </c>
       <c r="T3" t="n">
-        <v>36.4</v>
+        <v>29.7</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>2.21</v>
       </c>
       <c r="V3" t="n">
-        <v>3.77556</v>
+        <v>3.3</v>
       </c>
       <c r="W3" t="n">
-        <v>3702.1</v>
+        <v>3396.5</v>
       </c>
       <c r="X3" t="n">
-        <v>6864.8</v>
+        <v>11563.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4381.9</v>
+        <v>6125.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.2</v>
+        <v>7.64</v>
       </c>
       <c r="AA3" t="n">
-        <v>13337.7</v>
+        <v>13680</v>
       </c>
       <c r="AB3" t="n">
-        <v>591</v>
+        <v>958.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.2</v>
+        <v>68</v>
       </c>
       <c r="AD3" t="n">
-        <v>1401.8</v>
+        <v>2917.6</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.300000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="AF3" t="n">
-        <v>727</v>
+        <v>850.8</v>
       </c>
       <c r="AG3" t="n">
-        <v>334.6</v>
+        <v>369.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>5509.1</v>
+        <v>7766.9</v>
       </c>
       <c r="AI3" t="n">
-        <v>8040.7</v>
+        <v>9910.200000000001</v>
       </c>
       <c r="AJ3" t="n">
-        <v>37.5</v>
+        <v>47.1</v>
       </c>
       <c r="AK3" t="n">
-        <v>1114.39</v>
+        <v>1245.8</v>
       </c>
       <c r="AL3" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="AM3" t="inlineStr"/>
+        <v>25.4</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>970.84</v>
+      </c>
       <c r="AN3" t="n">
-        <v>11596.2</v>
+        <v>14985.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>255</v>
+        <v>292.6</v>
       </c>
       <c r="AP3" t="n">
-        <v>431.9</v>
+        <v>418</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8.859999999999999</v>
+        <v>13.8</v>
       </c>
       <c r="AR3" t="n">
-        <v>4375.4</v>
+        <v>5583.3</v>
       </c>
       <c r="AS3" t="n">
-        <v>938</v>
-      </c>
-      <c r="AT3" t="inlineStr"/>
+        <v>1116.6</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1301.8</v>
+      </c>
       <c r="AU3" t="n">
-        <v>13.74368</v>
+        <v>16.1</v>
       </c>
       <c r="AV3" t="n">
-        <v>21.80047</v>
+        <v>34.3</v>
       </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51939.5</v>
+        <v>54365.46</v>
       </c>
       <c r="C4" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1282.3</v>
+        <v>1343.34</v>
       </c>
       <c r="E4" t="n">
-        <v>2.75</v>
+        <v>2.86</v>
       </c>
       <c r="F4" t="n">
-        <v>3062.5</v>
+        <v>3344.04</v>
       </c>
       <c r="G4" t="n">
-        <v>15663.1</v>
+        <v>15980.01</v>
       </c>
       <c r="H4" t="n">
-        <v>79</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>9157.4</v>
+        <v>9566.209999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>35.01</v>
       </c>
       <c r="K4" t="n">
-        <v>1004.2</v>
+        <v>972.62</v>
       </c>
       <c r="L4" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="M4" t="n">
-        <v>4.8</v>
+        <v>4.94</v>
       </c>
       <c r="N4" t="n">
-        <v>58.8</v>
+        <v>60.37</v>
       </c>
       <c r="O4" t="n">
-        <v>7575.7</v>
+        <v>7647.61</v>
       </c>
       <c r="P4" t="n">
-        <v>231.1</v>
+        <v>244.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.6</v>
+        <v>25.81</v>
       </c>
       <c r="R4" t="n">
-        <v>28.9</v>
+        <v>29.66</v>
       </c>
       <c r="S4" t="n">
-        <v>1170.7</v>
+        <v>1171.12</v>
       </c>
       <c r="T4" t="n">
-        <v>29.7</v>
+        <v>30.86</v>
       </c>
       <c r="U4" t="n">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="V4" t="n">
-        <v>3.3</v>
+        <v>3.51</v>
       </c>
       <c r="W4" t="n">
-        <v>3396.5</v>
+        <v>3124.64</v>
       </c>
       <c r="X4" t="n">
-        <v>11563.5</v>
+        <v>12166.98</v>
       </c>
       <c r="Y4" t="n">
-        <v>6125.7</v>
+        <v>6401.77</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.64</v>
+        <v>7.86</v>
       </c>
       <c r="AA4" t="n">
-        <v>13680</v>
+        <v>14128.57</v>
       </c>
       <c r="AB4" t="n">
-        <v>958.8</v>
+        <v>1015.95</v>
       </c>
       <c r="AC4" t="n">
-        <v>68</v>
+        <v>67.25</v>
       </c>
       <c r="AD4" t="n">
-        <v>2917.6</v>
+        <v>2882.41</v>
       </c>
       <c r="AE4" t="n">
-        <v>10.8</v>
+        <v>10.57</v>
       </c>
       <c r="AF4" t="n">
-        <v>850.8</v>
+        <v>840.63</v>
       </c>
       <c r="AG4" t="n">
-        <v>369.2</v>
+        <v>365.49</v>
       </c>
       <c r="AH4" t="n">
-        <v>7766.9</v>
+        <v>8546.77</v>
       </c>
       <c r="AI4" t="n">
-        <v>9910.200000000001</v>
+        <v>10110.63</v>
       </c>
       <c r="AJ4" t="n">
-        <v>47.1</v>
+        <v>48.52</v>
       </c>
       <c r="AK4" t="n">
-        <v>1245.8</v>
+        <v>1233.19</v>
       </c>
       <c r="AL4" t="n">
-        <v>25.4</v>
+        <v>27.52</v>
       </c>
       <c r="AM4" t="n">
-        <v>970.84</v>
+        <v>961.46</v>
       </c>
       <c r="AN4" t="n">
-        <v>14985.2</v>
+        <v>17752.97</v>
       </c>
       <c r="AO4" t="n">
-        <v>292.6</v>
+        <v>307.24</v>
       </c>
       <c r="AP4" t="n">
-        <v>418</v>
+        <v>445.32</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13.8</v>
+        <v>15.51</v>
       </c>
       <c r="AR4" t="n">
-        <v>5583.3</v>
+        <v>5515.64</v>
       </c>
       <c r="AS4" t="n">
-        <v>1116.6</v>
+        <v>1118.37</v>
       </c>
       <c r="AT4" t="n">
-        <v>1301.8</v>
+        <v>1224.13</v>
       </c>
       <c r="AU4" t="n">
-        <v>16.1</v>
+        <v>16.31</v>
       </c>
       <c r="AV4" t="n">
-        <v>34.3</v>
+        <v>46.37</v>
       </c>
       <c r="AW4" t="n">
-        <v>27.1</v>
+        <v>33.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54365.46</v>
+        <v>55220.96</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>3.67</v>
       </c>
       <c r="D5" t="n">
-        <v>1343.34</v>
+        <v>1370.08</v>
       </c>
       <c r="E5" t="n">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="F5" t="n">
-        <v>3344.04</v>
+        <v>3025.36</v>
       </c>
       <c r="G5" t="n">
-        <v>15980.01</v>
+        <v>16666.73</v>
       </c>
       <c r="H5" t="n">
-        <v>83.20999999999999</v>
+        <v>88.75</v>
       </c>
       <c r="I5" t="n">
-        <v>9566.209999999999</v>
+        <v>9545.85</v>
       </c>
       <c r="J5" t="n">
-        <v>35.01</v>
+        <v>35.42</v>
       </c>
       <c r="K5" t="n">
-        <v>972.62</v>
+        <v>984.72</v>
       </c>
       <c r="L5" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="M5" t="n">
-        <v>4.94</v>
+        <v>5.13</v>
       </c>
       <c r="N5" t="n">
-        <v>60.37</v>
+        <v>60.6</v>
       </c>
       <c r="O5" t="n">
-        <v>7647.61</v>
+        <v>7817.26</v>
       </c>
       <c r="P5" t="n">
-        <v>244.08</v>
+        <v>252.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>25.81</v>
+        <v>25.92</v>
       </c>
       <c r="R5" t="n">
-        <v>29.66</v>
+        <v>30.62</v>
       </c>
       <c r="S5" t="n">
-        <v>1171.12</v>
+        <v>1171.2</v>
       </c>
       <c r="T5" t="n">
-        <v>30.86</v>
+        <v>31.15</v>
       </c>
       <c r="U5" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="V5" t="n">
-        <v>3.51</v>
+        <v>3.62</v>
       </c>
       <c r="W5" t="n">
-        <v>3124.64</v>
+        <v>3124.62</v>
       </c>
       <c r="X5" t="n">
-        <v>12166.98</v>
+        <v>13195.56</v>
       </c>
       <c r="Y5" t="n">
-        <v>6401.77</v>
+        <v>6428.16</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.86</v>
+        <v>8.19</v>
       </c>
       <c r="AA5" t="n">
-        <v>14128.57</v>
+        <v>14224.92</v>
       </c>
       <c r="AB5" t="n">
-        <v>1015.95</v>
+        <v>1030.42</v>
       </c>
       <c r="AC5" t="n">
-        <v>67.25</v>
+        <v>68.78</v>
       </c>
       <c r="AD5" t="n">
-        <v>2882.41</v>
+        <v>3006.78</v>
       </c>
       <c r="AE5" t="n">
-        <v>10.57</v>
+        <v>10.27</v>
       </c>
       <c r="AF5" t="n">
-        <v>840.63</v>
+        <v>848.88</v>
       </c>
       <c r="AG5" t="n">
-        <v>365.49</v>
+        <v>365.3</v>
       </c>
       <c r="AH5" t="n">
-        <v>8546.77</v>
+        <v>8967</v>
       </c>
       <c r="AI5" t="n">
-        <v>10110.63</v>
+        <v>10607.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>48.52</v>
+        <v>50.89</v>
       </c>
       <c r="AK5" t="n">
-        <v>1233.19</v>
+        <v>1220.24</v>
       </c>
       <c r="AL5" t="n">
-        <v>27.52</v>
+        <v>31.6</v>
       </c>
       <c r="AM5" t="n">
-        <v>961.46</v>
+        <v>967.38</v>
       </c>
       <c r="AN5" t="n">
-        <v>17752.97</v>
+        <v>18493.85</v>
       </c>
       <c r="AO5" t="n">
-        <v>307.24</v>
+        <v>319.76</v>
       </c>
       <c r="AP5" t="n">
-        <v>445.32</v>
+        <v>450.04</v>
       </c>
       <c r="AQ5" t="n">
-        <v>15.51</v>
+        <v>18.46</v>
       </c>
       <c r="AR5" t="n">
-        <v>5515.64</v>
+        <v>5644.05</v>
       </c>
       <c r="AS5" t="n">
-        <v>1118.37</v>
+        <v>1118.07</v>
       </c>
       <c r="AT5" t="n">
-        <v>1224.13</v>
+        <v>1982.88</v>
       </c>
       <c r="AU5" t="n">
-        <v>16.31</v>
+        <v>16.75</v>
       </c>
       <c r="AV5" t="n">
-        <v>46.37</v>
+        <v>50.57</v>
       </c>
       <c r="AW5" t="n">
-        <v>33.95</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55220.96</v>
+        <v>57936.04</v>
       </c>
       <c r="C6" t="n">
-        <v>3.67</v>
+        <v>4.4</v>
       </c>
       <c r="D6" t="n">
-        <v>1370.08</v>
+        <v>1432.4</v>
       </c>
       <c r="E6" t="n">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="F6" t="n">
-        <v>3025.36</v>
+        <v>3046.3</v>
       </c>
       <c r="G6" t="n">
-        <v>16666.73</v>
+        <v>17085.73</v>
       </c>
       <c r="H6" t="n">
-        <v>88.75</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>9545.85</v>
+        <v>9259.200000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>35.42</v>
+        <v>35.7</v>
       </c>
       <c r="K6" t="n">
-        <v>984.72</v>
+        <v>824.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="M6" t="n">
-        <v>5.13</v>
+        <v>5.1</v>
       </c>
       <c r="N6" t="n">
-        <v>60.6</v>
+        <v>63</v>
       </c>
       <c r="O6" t="n">
-        <v>7817.26</v>
+        <v>7836.6</v>
       </c>
       <c r="P6" t="n">
-        <v>252.84</v>
+        <v>252.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.92</v>
+        <v>26.4</v>
       </c>
       <c r="R6" t="n">
-        <v>30.62</v>
+        <v>30</v>
       </c>
       <c r="S6" t="n">
-        <v>1171.2</v>
+        <v>1173</v>
       </c>
       <c r="T6" t="n">
-        <v>31.15</v>
+        <v>31</v>
       </c>
       <c r="U6" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="V6" t="n">
-        <v>3.62</v>
+        <v>3.7</v>
       </c>
       <c r="W6" t="n">
-        <v>3124.62</v>
+        <v>3126.6</v>
       </c>
       <c r="X6" t="n">
-        <v>13195.56</v>
+        <v>13638.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>6428.16</v>
+        <v>6561.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.19</v>
+        <v>8.26</v>
       </c>
       <c r="AA6" t="n">
-        <v>14224.92</v>
+        <v>14240.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>1030.42</v>
+        <v>1071.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.78</v>
+        <v>69.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>3006.78</v>
+        <v>3028.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>10.27</v>
+        <v>10.2</v>
       </c>
       <c r="AF6" t="n">
-        <v>848.88</v>
+        <v>852.1900000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>365.3</v>
+        <v>401</v>
       </c>
       <c r="AH6" t="n">
-        <v>8967</v>
+        <v>9216.299999999999</v>
       </c>
       <c r="AI6" t="n">
-        <v>10607.75</v>
+        <v>11443.49</v>
       </c>
       <c r="AJ6" t="n">
-        <v>50.89</v>
+        <v>51.7</v>
       </c>
       <c r="AK6" t="n">
-        <v>1220.24</v>
+        <v>1193.27</v>
       </c>
       <c r="AL6" t="n">
-        <v>31.6</v>
+        <v>32.9</v>
       </c>
       <c r="AM6" t="n">
-        <v>967.38</v>
+        <v>1092</v>
       </c>
       <c r="AN6" t="n">
-        <v>18493.85</v>
+        <v>18755.67</v>
       </c>
       <c r="AO6" t="n">
-        <v>319.76</v>
+        <v>327.7</v>
       </c>
       <c r="AP6" t="n">
-        <v>450.04</v>
+        <v>453.1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>18.46</v>
+        <v>18.16</v>
       </c>
       <c r="AR6" t="n">
-        <v>5644.05</v>
+        <v>5641.1</v>
       </c>
       <c r="AS6" t="n">
-        <v>1118.07</v>
+        <v>1187.9</v>
       </c>
       <c r="AT6" t="n">
-        <v>1982.88</v>
+        <v>2160.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>16.75</v>
+        <v>17.8</v>
       </c>
       <c r="AV6" t="n">
-        <v>50.57</v>
+        <v>53.8</v>
       </c>
       <c r="AW6" t="n">
-        <v>34.74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57936.04</v>
+        <v>59665.8</v>
       </c>
       <c r="C7" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="D7" t="n">
-        <v>1432.4</v>
+        <v>1493.2</v>
       </c>
       <c r="E7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>3046.3</v>
+        <v>3040.7</v>
       </c>
       <c r="G7" t="n">
-        <v>17085.73</v>
+        <v>17182.6</v>
       </c>
       <c r="H7" t="n">
-        <v>96.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>9259.200000000001</v>
+        <v>9254.799999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="K7" t="n">
-        <v>824.9</v>
+        <v>825.1</v>
       </c>
       <c r="L7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="N7" t="n">
-        <v>63</v>
+        <v>62.8</v>
       </c>
       <c r="O7" t="n">
-        <v>7836.6</v>
+        <v>7503.1</v>
       </c>
       <c r="P7" t="n">
-        <v>252.3</v>
+        <v>259.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="R7" t="n">
         <v>30</v>
       </c>
       <c r="S7" t="n">
-        <v>1173</v>
+        <v>1190.6</v>
       </c>
       <c r="T7" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="U7" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="V7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="W7" t="n">
         <v>3126.6</v>
       </c>
       <c r="X7" t="n">
-        <v>13638.4</v>
+        <v>14131.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>6561.3</v>
+        <v>6874.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.26</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>14240.9</v>
+        <v>14701.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>1071.6</v>
+        <v>1120.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>69.7</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>3028.6</v>
+        <v>3192.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="AF7" t="n">
-        <v>852.1900000000001</v>
+        <v>853</v>
       </c>
       <c r="AG7" t="n">
-        <v>401</v>
+        <v>401.9</v>
       </c>
       <c r="AH7" t="n">
-        <v>9216.299999999999</v>
+        <v>9832.9</v>
       </c>
       <c r="AI7" t="n">
-        <v>11443.49</v>
+        <v>11253.6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>51.7</v>
+        <v>54.7</v>
       </c>
       <c r="AK7" t="n">
-        <v>1193.27</v>
+        <v>1210.8</v>
       </c>
       <c r="AL7" t="n">
-        <v>32.9</v>
+        <v>34.7</v>
       </c>
       <c r="AM7" t="n">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="AN7" t="n">
-        <v>18755.67</v>
+        <v>20025</v>
       </c>
       <c r="AO7" t="n">
-        <v>327.7</v>
+        <v>343.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>453.1</v>
+        <v>454.2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>18.16</v>
+        <v>19.2</v>
       </c>
       <c r="AR7" t="n">
-        <v>5641.1</v>
+        <v>5621.7</v>
       </c>
       <c r="AS7" t="n">
-        <v>1187.9</v>
+        <v>1076.1</v>
       </c>
       <c r="AT7" t="n">
-        <v>2160.2</v>
+        <v>3841.8</v>
       </c>
       <c r="AU7" t="n">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="AV7" t="n">
-        <v>53.8</v>
+        <v>56.6</v>
       </c>
       <c r="AW7" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>59665.8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1493.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3040.7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>17182.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9254.799999999999</v>
-      </c>
-      <c r="J8" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>825.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>7503.1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>259.1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>30</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1190.6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>35</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>3126.6</v>
-      </c>
-      <c r="X8" t="n">
-        <v>14131.1</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>6874.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>14701.3</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1120.4</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>69.40000000000001</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3192.4</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>853</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>401.9</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9832.9</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>11253.6</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1210.8</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1078</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>20025</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>343.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>454.2</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>5621.7</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1076.1</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3841.8</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="AW8" t="n">
         <v>35.4</v>
       </c>
     </row>
